--- a/Good Recordings/8.9.Labels.xlsx
+++ b/Good Recordings/8.9.Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DEAEFE-AB51-4252-A7C9-796B07CBBCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC400F9-0F2C-4939-9D4D-D7EE97E7254D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6269481-AABF-46E8-A78B-73185267E8D0}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -473,7 +473,7 @@
         <v>1292.32</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -484,7 +484,7 @@
         <v>1724.36</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
